--- a/Node_Information/East_SM_Outer.xlsx
+++ b/Node_Information/East_SM_Outer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsat27828\Desktop\ThermalMap_NodeGroup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t25944\Desktop\Small-GEO\Thermo-Elastic\Delta CDR\Coordinates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31266079-BA33-47FE-9306-2534319F6AF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
     <t>Solution Name :</t>
   </si>
   <si>
-    <t>_ASG1_GLOBAL_MODEL_assyfem1_sim1 : EQNXBOL_Thermoelastic</t>
+    <t>_ASG1_GLOBAL_MODEL_assyfem1_sim1 : JSEOL_Delta_CDR</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -44,7 +45,7 @@
     <t>Iteration :</t>
   </si>
   <si>
-    <t>Increment 300, 1.543E+05s</t>
+    <t>Increment 6, 1.200E+03s</t>
   </si>
   <si>
     <t>Result :</t>
@@ -101,11 +102,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="##0.000E+0"/>
+    <numFmt numFmtId="168" formatCode="##0.000E+0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,20 +149,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,1294 +439,1446 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>266633</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="B13" s="1">
+        <v>197618</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F13" s="3">
         <v>876.390869140625</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <v>649.061279296875</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2">
-        <v>16.036806106567401</v>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>8.23321437835693</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>266634</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="B14" s="1">
+        <v>197619</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F14" s="3">
         <v>876.390869140625</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>428.32247924804699</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2">
-        <v>14.947110176086399</v>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>8.2447757720947301</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>266635</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="B15" s="1">
+        <v>197620</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F15" s="3">
         <v>876.390869140625</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="1">
         <v>207.58375549316401</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2">
-        <v>13.811359405517599</v>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>8.3460483551025408</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>266636</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="B16" s="1">
+        <v>197621</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F16" s="3">
         <v>681.39178466796898</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="1">
         <v>649.061279296875</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2">
-        <v>16.616676330566399</v>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>8.2338199615478498</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>266637</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="B17" s="1">
+        <v>197622</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>681.39178466796898</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="1">
         <v>428.32247924804699</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2">
-        <v>15.5726261138916</v>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>8.2525348663330096</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>266638</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="B18" s="1">
+        <v>197623</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>681.39178466796898</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="1">
         <v>207.58375549316401</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2">
-        <v>14.471749305725099</v>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
+        <v>8.3597288131713903</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>266639</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="B19" s="1">
+        <v>197624</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F19" s="3">
         <v>486.39270019531301</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="1">
         <v>649.061279296875</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2">
-        <v>18.614355087280298</v>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
+        <v>8.28338527679443</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>266640</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="B20" s="1">
+        <v>197625</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>486.39270019531301</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="1">
         <v>428.32247924804699</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2">
-        <v>17.678442001342798</v>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <v>8.3388891220092791</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>266641</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="B21" s="1">
+        <v>197626</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F21" s="3">
         <v>486.39270019531301</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="1">
         <v>207.58375549316401</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2">
-        <v>16.624919891357401</v>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <v>8.4747419357299805</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>266642</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="B22" s="1">
+        <v>197627</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F22" s="3">
         <v>291.39361572265602</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="1">
         <v>649.061279296875</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2">
-        <v>20.850578308105501</v>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
+        <v>8.3332262039184606</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>266643</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="B23" s="1">
+        <v>197628</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>291.39361572265602</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="1">
         <v>428.32247924804699</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
-        <v>20.045505523681602</v>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <v>8.4247255325317401</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>266644</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="B24" s="1">
+        <v>197629</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F24" s="3">
         <v>291.39361572265602</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="1">
         <v>207.58375549316401</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2">
-        <v>19.121618270873999</v>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>8.6415739059448207</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>266645</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="B25" s="1">
+        <v>197630</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F25" s="3">
         <v>96.394523620605497</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="1">
         <v>649.061279296875</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2">
-        <v>21.9869899749756</v>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <v>8.3621616363525408</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>266646</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F26" s="4">
+      <c r="B26" s="1">
+        <v>197631</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>96.394523620605497</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="1">
         <v>428.32247924804699</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2">
-        <v>21.406448364257798</v>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
+        <v>8.4384527206420898</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>266647</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="B27" s="1">
+        <v>197632</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>96.394523620605497</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="1">
         <v>207.58375549316401</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2">
-        <v>20.657264709472699</v>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
+        <v>8.7531280517578107</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>266648</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F28" s="4">
+      <c r="B28" s="1">
+        <v>197633</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F28" s="3">
         <v>-98.604568481445298</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="1">
         <v>649.061279296875</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2">
-        <v>22.367122650146499</v>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
+        <v>8.4576807022094709</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>266649</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F29" s="4">
+      <c r="B29" s="1">
+        <v>197634</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F29" s="3">
         <v>-98.604568481445298</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="1">
         <v>428.32247924804699</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2">
-        <v>21.999490737915</v>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
+        <v>8.5403928756713903</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>266650</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F30" s="4">
+      <c r="B30" s="1">
+        <v>197635</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F30" s="3">
         <v>-98.604568481445298</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="1">
         <v>207.58375549316401</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2">
-        <v>21.453071594238299</v>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
+        <v>8.8318920135497994</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>266651</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F31" s="4">
+      <c r="B31" s="1">
+        <v>197636</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F31" s="3">
         <v>-293.60366821289102</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="1">
         <v>649.061279296875</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2">
-        <v>21.702732086181602</v>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
+        <v>8.5902976989746094</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>266652</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F32" s="4">
+      <c r="B32" s="1">
+        <v>197637</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-293.60366821289102</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="1">
         <v>428.32247924804699</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2">
-        <v>21.363763809204102</v>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3">
+        <v>8.6946611404418892</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>266653</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="B33" s="1">
+        <v>197638</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-293.60366821289102</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="1">
         <v>207.58375549316401</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2">
-        <v>21.299655914306602</v>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3">
+        <v>8.9442319869995099</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>266654</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="B34" s="1">
+        <v>197639</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F34" s="3">
         <v>-488.60275268554699</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="1">
         <v>649.061279296875</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2">
-        <v>19.574172973632798</v>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3">
+        <v>8.7566823959350604</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>266655</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F35" s="4">
+      <c r="B35" s="1">
+        <v>197640</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-488.60275268554699</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="1">
         <v>428.32247924804699</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2">
-        <v>19.2147102355957</v>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3">
+        <v>8.8536043167114293</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>266656</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F36" s="4">
+      <c r="B36" s="1">
+        <v>197641</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F36" s="3">
         <v>-488.60275268554699</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="1">
         <v>207.58375549316401</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2">
-        <v>19.224786758422901</v>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3">
+        <v>9.0433130264282209</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>266657</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F37" s="4">
+      <c r="B37" s="1">
+        <v>197642</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F37" s="3">
         <v>-683.60186767578102</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="1">
         <v>649.061279296875</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2">
-        <v>17.360033035278299</v>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3">
+        <v>8.8920345306396502</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>266658</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F38" s="4">
+      <c r="B38" s="1">
+        <v>197643</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F38" s="3">
         <v>-683.60186767578102</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="1">
         <v>428.32247924804699</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2">
-        <v>17.134445190429702</v>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3">
+        <v>8.9831504821777308</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>266659</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="B39" s="1">
+        <v>197644</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F39" s="3">
         <v>-683.60186767578102</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="1">
         <v>207.58375549316401</v>
       </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2">
-        <v>17.035081863403299</v>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3">
+        <v>9.0791549682617205</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>266660</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F40" s="4">
+      <c r="B40" s="1">
+        <v>197645</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F40" s="3">
         <v>-878.60089111328102</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="1">
         <v>649.061279296875</v>
       </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2">
-        <v>16.477174758911101</v>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3">
+        <v>8.9331264495849592</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>266661</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F41" s="4">
+      <c r="B41" s="1">
+        <v>197646</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F41" s="3">
         <v>-878.60089111328102</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="1">
         <v>428.32247924804699</v>
       </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2">
-        <v>16.458196640014599</v>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3">
+        <v>9.0182027816772496</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>266662</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F42" s="4">
+      <c r="B42" s="1">
+        <v>197647</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F42" s="3">
         <v>-878.60089111328102</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="1">
         <v>207.58375549316401</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2">
-        <v>16.582645416259801</v>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3">
+        <v>9.09802150726318</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>266663</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F43" s="4">
+      <c r="B43" s="1">
+        <v>197648</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
         <v>-1073.60009765625</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="1">
         <v>207.58375549316401</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2">
-        <v>16.374353408813501</v>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3">
+        <v>9.0884437561035192</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>266664</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F44" s="4">
+      <c r="B44" s="1">
+        <v>197649</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F44" s="3">
         <v>-1073.60009765625</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="1">
         <v>428.32247924804699</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2">
-        <v>16.204217910766602</v>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3">
+        <v>9.0193681716918892</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>266665</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F45" s="4">
+      <c r="B45" s="1">
+        <v>197650</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F45" s="3">
         <v>-1073.60009765625</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="1">
         <v>649.061279296875</v>
       </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2">
-        <v>16.1567687988281</v>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3">
+        <v>8.9429073333740199</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>266666</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F46" s="4">
+      <c r="B46" s="1">
+        <v>197651</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F46" s="3">
         <v>876.390869140625</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2">
-        <v>13.365242004394499</v>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3">
+        <v>8.4037141799926793</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>266667</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F47" s="4">
+      <c r="B47" s="1">
+        <v>197652</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F47" s="3">
         <v>681.39178466796898</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2">
-        <v>14.101146697998001</v>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3">
+        <v>8.4234895706176793</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>266668</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F48" s="4">
+      <c r="B48" s="1">
+        <v>197653</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F48" s="3">
         <v>486.39270019531301</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2">
-        <v>16.1968097686768</v>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3">
+        <v>8.5498733520507795</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>266669</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F49" s="4">
+      <c r="B49" s="1">
+        <v>197654</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F49" s="3">
         <v>291.39361572265602</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2">
-        <v>18.7205486297607</v>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3">
+        <v>8.7747430801391602</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>266670</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F50" s="4">
+      <c r="B50" s="1">
+        <v>197655</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F50" s="3">
         <v>96.394523620605497</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2">
-        <v>20.3485622406006</v>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3">
+        <v>8.9796934127807599</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>266671</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F51" s="4">
+      <c r="B51" s="1">
+        <v>197656</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F51" s="3">
         <v>-98.604568481445298</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2">
-        <v>21.223566055297901</v>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3">
+        <v>9.0363855361938494</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>266672</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F52" s="4">
+      <c r="B52" s="1">
+        <v>197657</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F52" s="3">
         <v>-293.60366821289102</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2">
-        <v>21.4356899261475</v>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3">
+        <v>9.1069221496581996</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>266673</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F53" s="4">
+      <c r="B53" s="1">
+        <v>197658</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F53" s="3">
         <v>-488.60275268554699</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2">
-        <v>19.521751403808601</v>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3">
+        <v>9.1599035263061506</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>266674</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F54" s="4">
+      <c r="B54" s="1">
+        <v>197659</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F54" s="3">
         <v>-683.60186767578102</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2">
-        <v>17.187009811401399</v>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3">
+        <v>9.1112747192382795</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>266675</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F55" s="4">
+      <c r="B55" s="1">
+        <v>197660</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F55" s="3">
         <v>-878.60089111328102</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2">
-        <v>16.6621417999268</v>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3">
+        <v>9.1126127243041992</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>266676</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F56" s="4">
+      <c r="B56" s="1">
+        <v>197661</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F56" s="3">
         <v>-878.60089111328102</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2">
-        <v>16.583356857299801</v>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3">
+        <v>8.9097795486450195</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>266677</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F57" s="4">
+      <c r="B57" s="1">
+        <v>197662</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
         <v>-683.60186767578102</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2">
-        <v>17.533275604248001</v>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3">
+        <v>8.8641147613525408</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>266678</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F58" s="4">
+      <c r="B58" s="1">
+        <v>197663</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F58" s="3">
         <v>-488.60275268554699</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2">
-        <v>19.657854080200199</v>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3">
+        <v>8.7352886199951207</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>266679</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F59" s="4">
+      <c r="B59" s="1">
+        <v>197664</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>-293.60366821289102</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2">
-        <v>21.6700763702393</v>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3">
+        <v>8.5901947021484393</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>266680</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F60" s="4">
+      <c r="B60" s="1">
+        <v>197665</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>-98.604568481445298</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2">
-        <v>22.336397171020501</v>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3">
+        <v>8.4863872528076207</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>266681</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F61" s="4">
+      <c r="B61" s="1">
+        <v>197666</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F61" s="3">
         <v>96.394523620605497</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2">
-        <v>22.043764114379901</v>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3">
+        <v>8.3931150436401403</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>266682</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F62" s="4">
+      <c r="B62" s="1">
+        <v>197667</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F62" s="3">
         <v>291.39361572265602</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2">
-        <v>21.005485534668001</v>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3">
+        <v>8.3379278182983398</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>266683</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F63" s="4">
+      <c r="B63" s="1">
+        <v>197668</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F63" s="3">
         <v>486.39270019531301</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2">
-        <v>18.944660186767599</v>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3">
+        <v>8.3020048141479492</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>266684</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F64" s="4">
+      <c r="B64" s="1">
+        <v>197669</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F64" s="3">
         <v>681.39178466796898</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2">
-        <v>17.079605102539102</v>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3">
+        <v>8.2754125595092791</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>266685</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F65" s="4">
+      <c r="B65" s="1">
+        <v>197670</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F65" s="3">
         <v>876.390869140625</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2">
-        <v>16.457370758056602</v>
-      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3">
+        <v>8.2740249633789098</v>
+      </c>
+      <c r="J65" s="1"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>266686</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F66" s="4">
+      <c r="B66" s="1">
+        <v>197671</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1071.39001464844</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="1">
         <v>649.061279296875</v>
       </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2">
-        <v>15.727944374084499</v>
-      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3">
+        <v>8.2339506149291992</v>
+      </c>
+      <c r="J66" s="1"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>266687</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F67" s="4">
+      <c r="B67" s="1">
+        <v>197672</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F67" s="3">
         <v>1071.39001464844</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="1">
         <v>428.32247924804699</v>
       </c>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2">
-        <v>14.6652383804321</v>
-      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3">
+        <v>8.2479286193847692</v>
+      </c>
+      <c r="J67" s="1"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>266688</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F68" s="4">
+      <c r="B68" s="1">
+        <v>197673</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F68" s="3">
         <v>1071.39001464844</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="1">
         <v>207.58375549316401</v>
       </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2">
-        <v>13.5792350769043</v>
-      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3">
+        <v>8.33502292633057</v>
+      </c>
+      <c r="J68" s="1"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>266689</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F69" s="4">
+      <c r="B69" s="1">
+        <v>197674</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F69" s="3">
         <v>-1073.60009765625</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2">
-        <v>16.486774444580099</v>
-      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3">
+        <v>9.1072225570678693</v>
+      </c>
+      <c r="J69" s="1"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>266690</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F70" s="4">
+      <c r="B70" s="1">
+        <v>197675</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F70" s="3">
         <v>-1073.60009765625</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2">
-        <v>16.233982086181602</v>
-      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3">
+        <v>8.9156227111816406</v>
+      </c>
+      <c r="J70" s="1"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>266691</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F71" s="4">
+      <c r="B71" s="1">
+        <v>197676</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F71" s="3">
         <v>1071.39001464844</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2">
-        <v>13.1319980621338</v>
-      </c>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3">
+        <v>8.3933811187744105</v>
+      </c>
+      <c r="J71" s="1"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <v>266692</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F72" s="4">
+      <c r="B72" s="1">
+        <v>197677</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F72" s="3">
         <v>1071.39001464844</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2">
-        <v>16.202882766723601</v>
-      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3">
+        <v>8.2684621810913104</v>
+      </c>
+      <c r="J72" s="1"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I74" s="2">
-        <v>13.1319980621338</v>
-      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="3">
+        <v>8.23321437835693</v>
+      </c>
+      <c r="J74" s="1"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I75" s="3">
-        <v>266691</v>
-      </c>
-      <c r="J75" s="3"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="4">
+        <v>197618</v>
+      </c>
+      <c r="J75" s="4"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I76" s="2">
-        <v>22.367122650146499</v>
-      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="3">
+        <v>9.1599035263061506</v>
+      </c>
+      <c r="J76" s="1"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="3">
-        <v>266648</v>
-      </c>
-      <c r="J77" s="3"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="4">
+        <v>197658</v>
+      </c>
+      <c r="J77" s="4"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I79" s="2">
-        <v>1084.52722167969</v>
-      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="3">
+        <v>518.81604003906295</v>
+      </c>
+      <c r="J79" s="1"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I80" s="2">
-        <v>18.075454711914102</v>
-      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="3">
+        <v>8.6469335556030291</v>
+      </c>
+      <c r="J80" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>